--- a/data/GlycoNet Budget Template.xlsx
+++ b/data/GlycoNet Budget Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccile\Dropbox\RFP\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claude\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11640" tabRatio="705"/>
   </bookViews>
   <sheets>
     <sheet name="Total Project" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="NPI-11" sheetId="11" r:id="rId12"/>
     <sheet name="Sheet1" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -196,8 +196,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -360,7 +360,7 @@
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -393,20 +393,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -418,15 +418,15 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -436,26 +436,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -473,21 +473,21 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -503,11 +503,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -515,16 +517,18 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -534,10 +538,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -868,67 +868,67 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A4" sqref="A4:J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F3" s="46"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="50"/>
+      <c r="B5" s="51"/>
       <c r="E5" s="36" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -938,12 +938,12 @@
       <c r="E6" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="47"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="53"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -960,7 +960,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>9</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>14</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>10</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>11</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>20</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>21</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>1</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>2</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>3</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>47</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>13</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="48" t="s">
         <v>43</v>
       </c>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="F27" s="45"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>5</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
@@ -1308,26 +1308,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="10"/>
       <c r="E30" s="40"/>
       <c r="F30" s="10"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="10"/>
       <c r="E31" s="9"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="E32" s="9"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>33</v>
       </c>
@@ -1343,26 +1343,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="10"/>
       <c r="E34" s="40"/>
       <c r="F34" s="10"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="10"/>
       <c r="E35" s="11"/>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
@@ -1378,26 +1378,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="10"/>
       <c r="E38" s="40"/>
       <c r="F38" s="10"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
       <c r="B39" s="10"/>
       <c r="E39" s="12"/>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="10"/>
       <c r="E40" s="12"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="30" t="s">
         <v>42</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>37</v>
       </c>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F43" s="13"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>38</v>
       </c>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="F44" s="13"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="30" t="s">
         <v>36</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
         <v>37</v>
       </c>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="F46" s="13"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
         <v>38</v>
       </c>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="F47" s="13"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="30" t="s">
         <v>32</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
         <v>37</v>
       </c>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F49" s="15"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
         <v>38</v>
       </c>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="F50" s="13"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>13</v>
       </c>
@@ -1538,7 +1538,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="85EC" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1"/>
+  <sheetProtection password="85EC" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="7">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B1:D1"/>
@@ -1566,82 +1566,82 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="46"/>
       <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="52"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L3" s="50"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="E5" s="55" t="s">
+      <c r="B5" s="51"/>
+      <c r="E5" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="J5" s="55" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="J5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1651,19 +1651,19 @@
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="55"/>
       <c r="J6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="54"/>
-    </row>
-    <row r="7" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="55"/>
+    </row>
+    <row r="7" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -1767,7 +1767,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="E11" s="9"/>
@@ -1777,7 +1777,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="E12" s="9"/>
@@ -1787,7 +1787,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
@@ -1834,7 +1834,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="10"/>
       <c r="E15" s="11"/>
@@ -1844,7 +1844,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="10"/>
       <c r="E16" s="11"/>
@@ -1854,7 +1854,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>17</v>
       </c>
@@ -1901,7 +1901,7 @@
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="34"/>
       <c r="E19" s="12"/>
@@ -1911,7 +1911,7 @@
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="34"/>
       <c r="E20" s="12"/>
@@ -1921,7 +1921,7 @@
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
@@ -1968,7 +1968,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="15"/>
       <c r="E23" s="11"/>
@@ -1978,7 +1978,7 @@
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="10"/>
       <c r="E24" s="12"/>
@@ -1988,7 +1988,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>22</v>
       </c>
@@ -2035,7 +2035,7 @@
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>20</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>21</v>
       </c>
@@ -2098,7 +2098,7 @@
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>2</v>
       </c>
@@ -2145,7 +2145,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>3</v>
       </c>
@@ -2161,7 +2161,7 @@
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>47</v>
       </c>
@@ -2177,7 +2177,7 @@
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>13</v>
       </c>
@@ -2211,16 +2211,16 @@
   </sheetData>
   <sheetProtection password="85EC" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="10">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="K6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2239,82 +2239,82 @@
       <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" customWidth="1"/>
-    <col min="6" max="7" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="41.28515625" customWidth="1"/>
-    <col min="11" max="12" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" customWidth="1"/>
+    <col min="6" max="7" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="41.33203125" customWidth="1"/>
+    <col min="11" max="12" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="46"/>
       <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="52"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L3" s="50"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="E5" s="55" t="s">
+      <c r="B5" s="51"/>
+      <c r="E5" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="J5" s="55" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="J5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2324,19 +2324,19 @@
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="55"/>
       <c r="J6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="54"/>
-    </row>
-    <row r="7" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="55"/>
+    </row>
+    <row r="7" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="E11" s="9"/>
@@ -2450,7 +2450,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="E12" s="9"/>
@@ -2460,7 +2460,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
@@ -2507,7 +2507,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="10"/>
       <c r="E15" s="11"/>
@@ -2517,7 +2517,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="10"/>
       <c r="E16" s="11"/>
@@ -2527,7 +2527,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>17</v>
       </c>
@@ -2574,7 +2574,7 @@
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="34"/>
       <c r="E19" s="12"/>
@@ -2584,7 +2584,7 @@
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="34"/>
       <c r="E20" s="12"/>
@@ -2594,7 +2594,7 @@
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
@@ -2641,7 +2641,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="15"/>
       <c r="E23" s="11"/>
@@ -2651,7 +2651,7 @@
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="10"/>
       <c r="E24" s="12"/>
@@ -2661,7 +2661,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>22</v>
       </c>
@@ -2708,7 +2708,7 @@
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>20</v>
       </c>
@@ -2755,7 +2755,7 @@
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>21</v>
       </c>
@@ -2771,7 +2771,7 @@
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>2</v>
       </c>
@@ -2818,7 +2818,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>3</v>
       </c>
@@ -2834,7 +2834,7 @@
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>47</v>
       </c>
@@ -2850,7 +2850,7 @@
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>13</v>
       </c>
@@ -2884,16 +2884,16 @@
   </sheetData>
   <sheetProtection password="85EC" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="10">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="K6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2912,82 +2912,82 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="43.5703125" customWidth="1"/>
-    <col min="6" max="7" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="44.7109375" customWidth="1"/>
-    <col min="11" max="12" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="5" max="5" width="43.5546875" customWidth="1"/>
+    <col min="6" max="7" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="44.6640625" customWidth="1"/>
+    <col min="11" max="12" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="46"/>
       <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="52"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L3" s="50"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="E5" s="55" t="s">
+      <c r="B5" s="51"/>
+      <c r="E5" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="J5" s="55" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="J5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2997,19 +2997,19 @@
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="55"/>
       <c r="J6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="54"/>
-    </row>
-    <row r="7" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="55"/>
+    </row>
+    <row r="7" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -3113,7 +3113,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="E11" s="9"/>
@@ -3123,7 +3123,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="E12" s="9"/>
@@ -3133,7 +3133,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="10"/>
       <c r="E15" s="11"/>
@@ -3190,7 +3190,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="10"/>
       <c r="E16" s="11"/>
@@ -3200,7 +3200,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>17</v>
       </c>
@@ -3247,7 +3247,7 @@
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="34"/>
       <c r="E19" s="12"/>
@@ -3257,7 +3257,7 @@
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="34"/>
       <c r="E20" s="12"/>
@@ -3267,7 +3267,7 @@
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
@@ -3314,7 +3314,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="15"/>
       <c r="E23" s="11"/>
@@ -3324,7 +3324,7 @@
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="10"/>
       <c r="E24" s="12"/>
@@ -3334,7 +3334,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>22</v>
       </c>
@@ -3381,7 +3381,7 @@
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>20</v>
       </c>
@@ -3428,7 +3428,7 @@
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>21</v>
       </c>
@@ -3444,7 +3444,7 @@
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>2</v>
       </c>
@@ -3491,7 +3491,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>3</v>
       </c>
@@ -3507,7 +3507,7 @@
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>47</v>
       </c>
@@ -3523,7 +3523,7 @@
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>13</v>
       </c>
@@ -3557,16 +3557,16 @@
   </sheetData>
   <sheetProtection password="85EC" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="10">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="K6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3583,7 +3583,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3603,82 +3603,82 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="46"/>
       <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="52"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L3" s="50"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="43"/>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="J5" s="55" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="J5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -3688,19 +3688,19 @@
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="55"/>
       <c r="J6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="54"/>
-    </row>
-    <row r="7" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="55"/>
+    </row>
+    <row r="7" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -3804,7 +3804,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="E11" s="9"/>
@@ -3814,7 +3814,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="E12" s="9"/>
@@ -3824,7 +3824,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
@@ -3871,7 +3871,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="10"/>
       <c r="E15" s="11"/>
@@ -3881,7 +3881,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="10"/>
       <c r="E16" s="11"/>
@@ -3891,7 +3891,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>17</v>
       </c>
@@ -3936,7 +3936,7 @@
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="34"/>
       <c r="E19" s="12"/>
@@ -3946,7 +3946,7 @@
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="34"/>
       <c r="E20" s="12"/>
@@ -3956,7 +3956,7 @@
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
@@ -4003,7 +4003,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="15"/>
       <c r="E23" s="11"/>
@@ -4013,7 +4013,7 @@
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="10"/>
       <c r="E24" s="12"/>
@@ -4023,7 +4023,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>22</v>
       </c>
@@ -4070,7 +4070,7 @@
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>20</v>
       </c>
@@ -4117,7 +4117,7 @@
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>21</v>
       </c>
@@ -4133,7 +4133,7 @@
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>2</v>
       </c>
@@ -4180,7 +4180,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>3</v>
       </c>
@@ -4196,7 +4196,7 @@
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>47</v>
       </c>
@@ -4212,7 +4212,7 @@
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>13</v>
       </c>
@@ -4246,15 +4246,15 @@
   </sheetData>
   <sheetProtection password="85EC" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="9">
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="K6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -4275,82 +4275,82 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="46"/>
       <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="52"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L3" s="50"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="E5" s="55" t="s">
+      <c r="B5" s="51"/>
+      <c r="E5" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="J5" s="55" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="J5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -4360,19 +4360,19 @@
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="55"/>
       <c r="J6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="54"/>
-    </row>
-    <row r="7" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="55"/>
+    </row>
+    <row r="7" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>49</v>
       </c>
@@ -4476,7 +4476,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="E11" s="9"/>
@@ -4486,7 +4486,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="E12" s="9"/>
@@ -4496,7 +4496,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>50</v>
       </c>
@@ -4543,7 +4543,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="10"/>
       <c r="E15" s="11"/>
@@ -4553,7 +4553,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="10"/>
       <c r="E16" s="11"/>
@@ -4563,7 +4563,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>17</v>
       </c>
@@ -4610,7 +4610,7 @@
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="34"/>
       <c r="E19" s="12"/>
@@ -4620,7 +4620,7 @@
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="34"/>
       <c r="E20" s="12"/>
@@ -4630,7 +4630,7 @@
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
@@ -4677,7 +4677,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="15"/>
       <c r="E23" s="11"/>
@@ -4687,7 +4687,7 @@
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="10"/>
       <c r="E24" s="12"/>
@@ -4697,7 +4697,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>22</v>
       </c>
@@ -4744,7 +4744,7 @@
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>20</v>
       </c>
@@ -4791,7 +4791,7 @@
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>21</v>
       </c>
@@ -4807,7 +4807,7 @@
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>2</v>
       </c>
@@ -4854,7 +4854,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>3</v>
       </c>
@@ -4874,7 +4874,7 @@
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>47</v>
       </c>
@@ -4890,7 +4890,7 @@
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>13</v>
       </c>
@@ -4924,16 +4924,16 @@
   </sheetData>
   <sheetProtection password="85EC" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="10">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="K6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -4953,82 +4953,82 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="46"/>
       <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="52"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L3" s="50"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="E5" s="55" t="s">
+      <c r="B5" s="51"/>
+      <c r="E5" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="J5" s="55" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="J5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -5038,19 +5038,19 @@
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="55"/>
       <c r="J6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="54"/>
-    </row>
-    <row r="7" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="55"/>
+    </row>
+    <row r="7" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -5154,7 +5154,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="E11" s="9"/>
@@ -5164,7 +5164,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="E12" s="9"/>
@@ -5174,7 +5174,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
@@ -5221,7 +5221,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="10"/>
       <c r="E15" s="11"/>
@@ -5231,7 +5231,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="10"/>
       <c r="E16" s="11"/>
@@ -5241,7 +5241,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>17</v>
       </c>
@@ -5288,7 +5288,7 @@
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="34"/>
       <c r="E19" s="12"/>
@@ -5298,7 +5298,7 @@
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="34"/>
       <c r="E20" s="12"/>
@@ -5308,7 +5308,7 @@
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
@@ -5355,7 +5355,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="15"/>
       <c r="E23" s="11"/>
@@ -5365,7 +5365,7 @@
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="10"/>
       <c r="E24" s="12"/>
@@ -5375,7 +5375,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>22</v>
       </c>
@@ -5422,7 +5422,7 @@
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>20</v>
       </c>
@@ -5469,7 +5469,7 @@
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>21</v>
       </c>
@@ -5485,7 +5485,7 @@
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>2</v>
       </c>
@@ -5534,7 +5534,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>3</v>
       </c>
@@ -5550,7 +5550,7 @@
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>47</v>
       </c>
@@ -5566,7 +5566,7 @@
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>13</v>
       </c>
@@ -5600,16 +5600,16 @@
   </sheetData>
   <sheetProtection password="85EC" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="10">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="K6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -5628,82 +5628,82 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="46"/>
       <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="52"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L3" s="50"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="E5" s="55" t="s">
+      <c r="B5" s="51"/>
+      <c r="E5" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="J5" s="55" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="J5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -5713,19 +5713,19 @@
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="55"/>
       <c r="J6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="54"/>
-    </row>
-    <row r="7" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="55"/>
+    </row>
+    <row r="7" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -5829,7 +5829,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="E11" s="9"/>
@@ -5839,7 +5839,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="E12" s="9"/>
@@ -5849,7 +5849,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
@@ -5896,7 +5896,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="10"/>
       <c r="E15" s="11"/>
@@ -5906,7 +5906,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="10"/>
       <c r="E16" s="11"/>
@@ -5916,7 +5916,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>17</v>
       </c>
@@ -5963,7 +5963,7 @@
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="34"/>
       <c r="E19" s="12"/>
@@ -5973,7 +5973,7 @@
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="34"/>
       <c r="E20" s="12"/>
@@ -5983,7 +5983,7 @@
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
@@ -6030,7 +6030,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="15"/>
       <c r="E23" s="11"/>
@@ -6040,7 +6040,7 @@
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="10"/>
       <c r="E24" s="12"/>
@@ -6050,7 +6050,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>22</v>
       </c>
@@ -6097,7 +6097,7 @@
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>20</v>
       </c>
@@ -6144,7 +6144,7 @@
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>21</v>
       </c>
@@ -6160,7 +6160,7 @@
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>2</v>
       </c>
@@ -6207,7 +6207,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>3</v>
       </c>
@@ -6223,7 +6223,7 @@
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>47</v>
       </c>
@@ -6239,7 +6239,7 @@
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>13</v>
       </c>
@@ -6273,16 +6273,16 @@
   </sheetData>
   <sheetProtection password="85EC" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="10">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="K6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6301,82 +6301,82 @@
       <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
     <col min="5" max="5" width="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.42578125" customWidth="1"/>
+    <col min="6" max="7" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="43" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.42578125" customWidth="1"/>
+    <col min="11" max="12" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="46"/>
       <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="52"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L3" s="50"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="E5" s="55" t="s">
+      <c r="B5" s="51"/>
+      <c r="E5" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="J5" s="55" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="J5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -6386,19 +6386,19 @@
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="55"/>
       <c r="J6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="54"/>
-    </row>
-    <row r="7" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="55"/>
+    </row>
+    <row r="7" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -6502,7 +6502,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="E11" s="9"/>
@@ -6512,7 +6512,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="E12" s="9"/>
@@ -6522,7 +6522,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
@@ -6569,7 +6569,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="10"/>
       <c r="E15" s="11"/>
@@ -6579,7 +6579,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="10"/>
       <c r="E16" s="11"/>
@@ -6589,7 +6589,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>17</v>
       </c>
@@ -6636,7 +6636,7 @@
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="34"/>
       <c r="E19" s="12"/>
@@ -6646,7 +6646,7 @@
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="34"/>
       <c r="E20" s="12"/>
@@ -6656,7 +6656,7 @@
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
@@ -6703,7 +6703,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="15"/>
       <c r="E23" s="11"/>
@@ -6713,7 +6713,7 @@
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="10"/>
       <c r="E24" s="12"/>
@@ -6723,7 +6723,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>22</v>
       </c>
@@ -6770,7 +6770,7 @@
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>20</v>
       </c>
@@ -6817,7 +6817,7 @@
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>21</v>
       </c>
@@ -6833,7 +6833,7 @@
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>2</v>
       </c>
@@ -6880,7 +6880,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>3</v>
       </c>
@@ -6896,7 +6896,7 @@
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>47</v>
       </c>
@@ -6912,7 +6912,7 @@
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>13</v>
       </c>
@@ -6946,16 +6946,16 @@
   </sheetData>
   <sheetProtection password="85EC" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="10">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="K6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6974,82 +6974,82 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="46"/>
       <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="52"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L3" s="50"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="E5" s="55" t="s">
+      <c r="B5" s="51"/>
+      <c r="E5" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="J5" s="55" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="J5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -7059,19 +7059,19 @@
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="55"/>
       <c r="J6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="54"/>
-    </row>
-    <row r="7" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="55"/>
+    </row>
+    <row r="7" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -7175,7 +7175,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="E11" s="9"/>
@@ -7185,7 +7185,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="E12" s="9"/>
@@ -7195,7 +7195,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
@@ -7242,7 +7242,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="10"/>
       <c r="E15" s="11"/>
@@ -7252,7 +7252,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="10"/>
       <c r="E16" s="11"/>
@@ -7262,7 +7262,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>17</v>
       </c>
@@ -7309,7 +7309,7 @@
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="34"/>
       <c r="E19" s="12"/>
@@ -7319,7 +7319,7 @@
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="34"/>
       <c r="E20" s="12"/>
@@ -7329,7 +7329,7 @@
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
@@ -7376,7 +7376,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="15"/>
       <c r="E23" s="11"/>
@@ -7386,7 +7386,7 @@
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="10"/>
       <c r="E24" s="12"/>
@@ -7396,7 +7396,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>22</v>
       </c>
@@ -7443,7 +7443,7 @@
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>20</v>
       </c>
@@ -7490,7 +7490,7 @@
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>21</v>
       </c>
@@ -7506,7 +7506,7 @@
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>2</v>
       </c>
@@ -7553,7 +7553,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>3</v>
       </c>
@@ -7569,7 +7569,7 @@
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>47</v>
       </c>
@@ -7585,7 +7585,7 @@
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>13</v>
       </c>
@@ -7619,16 +7619,16 @@
   </sheetData>
   <sheetProtection password="85EC" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="10">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="K6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -7647,82 +7647,82 @@
       <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="46"/>
       <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="52"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L3" s="50"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="E5" s="55" t="s">
+      <c r="B5" s="51"/>
+      <c r="E5" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="J5" s="55" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="J5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -7732,19 +7732,19 @@
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="55"/>
       <c r="J6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="54"/>
-    </row>
-    <row r="7" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="55"/>
+    </row>
+    <row r="7" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -7848,7 +7848,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="E11" s="9"/>
@@ -7858,7 +7858,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="E12" s="9"/>
@@ -7868,7 +7868,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
@@ -7915,7 +7915,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="10"/>
       <c r="E15" s="11"/>
@@ -7925,7 +7925,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="10"/>
       <c r="E16" s="11"/>
@@ -7935,7 +7935,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>17</v>
       </c>
@@ -7982,7 +7982,7 @@
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="34"/>
       <c r="E19" s="12"/>
@@ -7992,7 +7992,7 @@
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="34"/>
       <c r="E20" s="12"/>
@@ -8002,7 +8002,7 @@
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
@@ -8049,7 +8049,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="15"/>
       <c r="E23" s="11"/>
@@ -8059,7 +8059,7 @@
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="10"/>
       <c r="E24" s="12"/>
@@ -8069,7 +8069,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>22</v>
       </c>
@@ -8116,7 +8116,7 @@
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>20</v>
       </c>
@@ -8163,7 +8163,7 @@
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>21</v>
       </c>
@@ -8179,7 +8179,7 @@
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>2</v>
       </c>
@@ -8226,7 +8226,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>3</v>
       </c>
@@ -8242,7 +8242,7 @@
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>47</v>
       </c>
@@ -8258,7 +8258,7 @@
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>13</v>
       </c>
@@ -8292,16 +8292,16 @@
   </sheetData>
   <sheetProtection password="85EC" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="10">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="K6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -8320,82 +8320,82 @@
       <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="46"/>
       <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="52"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L3" s="50"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="E5" s="55" t="s">
+      <c r="B5" s="51"/>
+      <c r="E5" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="J5" s="55" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="J5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -8405,19 +8405,19 @@
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="55"/>
       <c r="J6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="54"/>
-    </row>
-    <row r="7" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="55"/>
+    </row>
+    <row r="7" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -8521,7 +8521,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="E11" s="9"/>
@@ -8531,7 +8531,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="E12" s="9"/>
@@ -8541,7 +8541,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
@@ -8588,7 +8588,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="10"/>
       <c r="E15" s="11"/>
@@ -8598,7 +8598,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="10"/>
       <c r="E16" s="11"/>
@@ -8608,7 +8608,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>17</v>
       </c>
@@ -8655,7 +8655,7 @@
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="34"/>
       <c r="E19" s="12"/>
@@ -8665,7 +8665,7 @@
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="34"/>
       <c r="E20" s="12"/>
@@ -8675,7 +8675,7 @@
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
@@ -8722,7 +8722,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="15"/>
       <c r="E23" s="11"/>
@@ -8732,7 +8732,7 @@
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="10"/>
       <c r="E24" s="12"/>
@@ -8742,7 +8742,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>22</v>
       </c>
@@ -8789,7 +8789,7 @@
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>20</v>
       </c>
@@ -8836,7 +8836,7 @@
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>21</v>
       </c>
@@ -8852,7 +8852,7 @@
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>2</v>
       </c>
@@ -8899,7 +8899,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>3</v>
       </c>
@@ -8915,7 +8915,7 @@
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>47</v>
       </c>
@@ -8931,7 +8931,7 @@
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>13</v>
       </c>
@@ -8965,16 +8965,16 @@
   </sheetData>
   <sheetProtection password="85EC" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="10">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="K6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/data/GlycoNet Budget Template.xlsx
+++ b/data/GlycoNet Budget Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11640" tabRatio="705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="705"/>
   </bookViews>
   <sheets>
     <sheet name="Total Project" sheetId="12" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="52">
   <si>
     <t>EQUIPMENT</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Intra-project travel</t>
-  </si>
-  <si>
-    <t>Conferences (max $3K/year)</t>
   </si>
   <si>
     <t>Capital Equipment (Max $5K/project)</t>
@@ -189,6 +186,12 @@
   </si>
   <si>
     <t>PDF2</t>
+  </si>
+  <si>
+    <t>Conferences (max $3K/project)</t>
+  </si>
+  <si>
+    <t>Conferences (max $1.5K/NI)</t>
   </si>
 </sst>
 </file>
@@ -868,7 +871,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:J29"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
@@ -892,10 +895,10 @@
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
@@ -906,7 +909,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
@@ -919,24 +922,24 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="51"/>
       <c r="E5" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="52" t="s">
         <v>6</v>
@@ -945,19 +948,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1090,14 +1093,14 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="24">
         <f>'NPI-1'!B26+'NPI-2'!B26+'NPI-3'!B26+'NPI-4'!B26+'NPI-5'!B26+'NPI-6'!B26+'NPI-7'!B26+'NPI-8'!B26+'NPI-9'!B26+'NPI-10'!B26+'NPI-11'!B26</f>
         <v>0</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="39">
         <f>'NPI-1'!F26+'NPI-1'!K26+'NPI-2'!F26+'NPI-2'!K26+'NPI-3'!F26+'NPI-3'!K26+'NPI-4'!F26+'NPI-4'!K26+'NPI-5'!F26+'NPI-5'!K26+'NPI-6'!F26+'NPI-6'!K26+'NPI-7'!F26+'NPI-7'!K26+'NPI-8'!F26+'NPI-8'!K26+'NPI-9'!F26+'NPI-9'!K26+'NPI-10'!F26+'NPI-10'!K26+'NPI-11'!F26+'NPI-11'!K26</f>
@@ -1150,14 +1153,14 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B17" s="24">
         <f>'NPI-1'!B29+'NPI-2'!B29+'NPI-3'!B29+'NPI-4'!B29+'NPI-5'!B29+'NPI-6'!B29+'NPI-7'!B29+'NPI-8'!B29+'NPI-9'!B29+'NPI-10'!B29+'NPI-11'!B29</f>
         <v>0</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="39">
         <f>'NPI-1'!F29+'NPI-1'!K29+'NPI-2'!F29+'NPI-2'!K29+'NPI-3'!F29+'NPI-3'!K29+'NPI-4'!F29+'NPI-4'!K29+'NPI-5'!F29+'NPI-5'!K29+'NPI-6'!F29+'NPI-6'!K29+'NPI-7'!F29+'NPI-7'!K29+'NPI-8'!F29+'NPI-8'!K29+'NPI-9'!F29+'NPI-9'!K29+'NPI-10'!F29+'NPI-10'!K29+'NPI-11'!F29+'NPI-11'!K29</f>
@@ -1230,14 +1233,14 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="25">
         <f>'NPI-1'!B33+'NPI-2'!B33+'NPI-3'!B33+'NPI-4'!B33+'NPI-5'!B33+'NPI-6'!B33+'NPI-7'!B33+'NPI-8'!B33+'NPI-9'!B33+'NPI-10'!B33+'NPI-11'!B33</f>
         <v>0</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" s="25">
         <f>'NPI-1'!F33+'NPI-1'!K33+'NPI-2'!F33+'NPI-2'!K33+'NPI-3'!F33+'NPI-3'!K33+'NPI-4'!F33+'NPI-4'!K33+'NPI-5'!F33+'NPI-5'!K33+'NPI-6'!F33+'NPI-6'!K33+'NPI-7'!F33+'NPI-7'!K33+'NPI-8'!F33+'NPI-8'!K33+'NPI-9'!F33+'NPI-9'!K33+'NPI-10'!F33+'NPI-10'!K33+'NPI-11'!F33+'NPI-11'!K33</f>
@@ -1264,17 +1267,17 @@
         <v>0</v>
       </c>
       <c r="G22" s="38">
-        <f t="shared" ref="G22" si="4">G8+G13+G15+G18</f>
+        <f>G8+G13+G15+G18</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="49"/>
       <c r="E27" s="44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F27" s="45"/>
     </row>
@@ -1294,14 +1297,14 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="6">
         <f>SUM(B30:B32)</f>
         <v>0</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" s="18">
         <f>SUM(F30:F32)</f>
@@ -1329,14 +1332,14 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="6">
         <f>SUM(B34:B36)</f>
         <v>0</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F33" s="18">
         <f>SUM(F34:F36)</f>
@@ -1364,14 +1367,14 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="6">
         <f>SUM(B38:B40)</f>
         <v>0</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
         <f>SUM(F38:F40)</f>
@@ -1399,14 +1402,14 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="6">
         <f>(B42+B45+B48)</f>
         <v>0</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F41" s="18">
         <f>(F42+F45+F48)</f>
@@ -1415,14 +1418,14 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="31">
         <f>SUM(B43:B44)</f>
         <v>0</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F42" s="31">
         <f>SUM(F43:F44)</f>
@@ -1431,34 +1434,34 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="13"/>
       <c r="E43" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="13"/>
       <c r="E44" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F44" s="13"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="31">
         <f>SUM(B46:B47)</f>
         <v>0</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F45" s="31">
         <f>SUM(F46:F47)</f>
@@ -1467,34 +1470,34 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B46" s="13"/>
       <c r="E46" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F46" s="13"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="13"/>
       <c r="E47" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F47" s="13"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B48" s="31">
         <f>SUM(B49:B50)</f>
         <v>0</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F48" s="31">
         <f>SUM(F49:F50)</f>
@@ -1503,21 +1506,21 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B49" s="15"/>
       <c r="E49" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F49" s="15"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B50" s="13"/>
       <c r="E50" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F50" s="13"/>
     </row>
@@ -1538,7 +1541,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="85EC" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection password="85EC" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="7">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B1:D1"/>
@@ -1563,7 +1566,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1581,7 +1584,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
@@ -1592,7 +1595,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
@@ -1603,22 +1606,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="46"/>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="50"/>
     </row>
@@ -1627,16 +1630,16 @@
     </row>
     <row r="5" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="51"/>
       <c r="E5" s="56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
       <c r="J5" s="56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
@@ -1665,28 +1668,28 @@
     </row>
     <row r="7" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="J7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -2021,16 +2024,16 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="34"/>
       <c r="E26" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
       <c r="J26" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
@@ -2084,16 +2087,16 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B29" s="34"/>
       <c r="E29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
       <c r="J29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
@@ -2163,16 +2166,16 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="34"/>
       <c r="E33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
       <c r="J33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
@@ -2211,16 +2214,16 @@
   </sheetData>
   <sheetProtection password="85EC" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="10">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2236,7 +2239,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2254,7 +2257,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
@@ -2265,7 +2268,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
@@ -2276,22 +2279,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="46"/>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="50"/>
     </row>
@@ -2300,16 +2303,16 @@
     </row>
     <row r="5" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="51"/>
       <c r="E5" s="56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
       <c r="J5" s="56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
@@ -2338,28 +2341,28 @@
     </row>
     <row r="7" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="J7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -2694,16 +2697,16 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="34"/>
       <c r="E26" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
       <c r="J26" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
@@ -2757,16 +2760,16 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B29" s="34"/>
       <c r="E29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
       <c r="J29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
@@ -2836,16 +2839,16 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="34"/>
       <c r="E33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
       <c r="J33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
@@ -2884,16 +2887,16 @@
   </sheetData>
   <sheetProtection password="85EC" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="10">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2909,7 +2912,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2927,7 +2930,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
@@ -2938,7 +2941,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
@@ -2949,22 +2952,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="46"/>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="50"/>
     </row>
@@ -2973,16 +2976,16 @@
     </row>
     <row r="5" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="51"/>
       <c r="E5" s="56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
       <c r="J5" s="56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
@@ -3011,28 +3014,28 @@
     </row>
     <row r="7" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="J7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -3367,16 +3370,16 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="34"/>
       <c r="E26" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
       <c r="J26" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
@@ -3430,16 +3433,16 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B29" s="34"/>
       <c r="E29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
       <c r="J29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
@@ -3509,16 +3512,16 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="34"/>
       <c r="E33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
       <c r="J33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
@@ -3557,16 +3560,16 @@
   </sheetData>
   <sheetProtection password="85EC" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="10">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3600,7 +3603,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3618,7 +3621,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
@@ -3629,7 +3632,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
@@ -3640,22 +3643,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="46"/>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="50"/>
     </row>
@@ -3664,16 +3667,16 @@
     </row>
     <row r="5" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="43"/>
       <c r="E5" s="56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
       <c r="J5" s="56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
@@ -3702,28 +3705,28 @@
     </row>
     <row r="7" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="J7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -4056,16 +4059,16 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="34"/>
       <c r="E26" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
       <c r="J26" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
@@ -4119,16 +4122,16 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B29" s="34"/>
       <c r="E29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
       <c r="J29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
@@ -4198,16 +4201,16 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="34"/>
       <c r="E33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
       <c r="J33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
@@ -4272,7 +4275,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4290,7 +4293,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
@@ -4301,7 +4304,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
@@ -4312,22 +4315,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="46"/>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="50"/>
     </row>
@@ -4336,16 +4339,16 @@
     </row>
     <row r="5" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="51"/>
       <c r="E5" s="56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
       <c r="J5" s="56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
@@ -4374,28 +4377,28 @@
     </row>
     <row r="7" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="J7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -4462,7 +4465,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="10"/>
       <c r="E10" s="9" t="s">
@@ -4529,7 +4532,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="10"/>
       <c r="E14" s="11" t="s">
@@ -4730,16 +4733,16 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="34"/>
       <c r="E26" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
       <c r="J26" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
@@ -4793,16 +4796,16 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B29" s="34"/>
       <c r="E29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
       <c r="J29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
@@ -4876,16 +4879,16 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="34"/>
       <c r="E33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
       <c r="J33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
@@ -4924,16 +4927,16 @@
   </sheetData>
   <sheetProtection password="85EC" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="10">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -4950,7 +4953,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4968,7 +4971,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
@@ -4979,7 +4982,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
@@ -4990,22 +4993,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="46"/>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="50"/>
     </row>
@@ -5014,16 +5017,16 @@
     </row>
     <row r="5" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="51"/>
       <c r="E5" s="56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
       <c r="J5" s="56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
@@ -5052,28 +5055,28 @@
     </row>
     <row r="7" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="J7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -5278,7 +5281,7 @@
       </c>
       <c r="B18" s="34"/>
       <c r="E18" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
@@ -5408,16 +5411,16 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="34"/>
       <c r="E26" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
       <c r="J26" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
@@ -5471,16 +5474,16 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B29" s="34"/>
       <c r="E29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
       <c r="J29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
@@ -5552,16 +5555,16 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="34"/>
       <c r="E33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
       <c r="J33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
@@ -5600,16 +5603,16 @@
   </sheetData>
   <sheetProtection password="85EC" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="10">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -5625,7 +5628,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5643,7 +5646,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
@@ -5654,7 +5657,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
@@ -5665,22 +5668,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="46"/>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="50"/>
     </row>
@@ -5689,16 +5692,16 @@
     </row>
     <row r="5" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="51"/>
       <c r="E5" s="56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
       <c r="J5" s="56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
@@ -5727,28 +5730,28 @@
     </row>
     <row r="7" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="J7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -6083,16 +6086,16 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="34"/>
       <c r="E26" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
       <c r="J26" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
@@ -6146,16 +6149,16 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B29" s="34"/>
       <c r="E29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
       <c r="J29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
@@ -6225,16 +6228,16 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="34"/>
       <c r="E33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
       <c r="J33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
@@ -6273,16 +6276,16 @@
   </sheetData>
   <sheetProtection password="85EC" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="10">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6298,7 +6301,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6316,7 +6319,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
@@ -6327,7 +6330,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
@@ -6338,22 +6341,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="46"/>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="50"/>
     </row>
@@ -6362,16 +6365,16 @@
     </row>
     <row r="5" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="51"/>
       <c r="E5" s="56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
       <c r="J5" s="56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
@@ -6400,28 +6403,28 @@
     </row>
     <row r="7" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="J7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -6756,16 +6759,16 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="34"/>
       <c r="E26" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
       <c r="J26" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
@@ -6819,16 +6822,16 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B29" s="34"/>
       <c r="E29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
       <c r="J29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
@@ -6898,16 +6901,16 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="34"/>
       <c r="E33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
       <c r="J33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
@@ -6946,16 +6949,16 @@
   </sheetData>
   <sheetProtection password="85EC" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="10">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6971,7 +6974,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6989,7 +6992,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
@@ -7000,7 +7003,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
@@ -7011,22 +7014,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="46"/>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="50"/>
     </row>
@@ -7035,16 +7038,16 @@
     </row>
     <row r="5" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="51"/>
       <c r="E5" s="56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
       <c r="J5" s="56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
@@ -7073,28 +7076,28 @@
     </row>
     <row r="7" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="J7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -7429,16 +7432,16 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="34"/>
       <c r="E26" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
       <c r="J26" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
@@ -7492,16 +7495,16 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B29" s="34"/>
       <c r="E29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
       <c r="J29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
@@ -7571,16 +7574,16 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="34"/>
       <c r="E33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
       <c r="J33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
@@ -7619,16 +7622,16 @@
   </sheetData>
   <sheetProtection password="85EC" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="10">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -7644,7 +7647,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7662,7 +7665,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
@@ -7673,7 +7676,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
@@ -7684,22 +7687,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="46"/>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="50"/>
     </row>
@@ -7708,16 +7711,16 @@
     </row>
     <row r="5" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="51"/>
       <c r="E5" s="56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
       <c r="J5" s="56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
@@ -7746,28 +7749,28 @@
     </row>
     <row r="7" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="J7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -8102,16 +8105,16 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="34"/>
       <c r="E26" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
       <c r="J26" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
@@ -8165,16 +8168,16 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B29" s="34"/>
       <c r="E29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
       <c r="J29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
@@ -8244,16 +8247,16 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="34"/>
       <c r="E33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
       <c r="J33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
@@ -8292,16 +8295,16 @@
   </sheetData>
   <sheetProtection password="85EC" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="10">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -8317,7 +8320,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8335,7 +8338,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
@@ -8346,7 +8349,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
@@ -8357,22 +8360,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="46"/>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="50"/>
     </row>
@@ -8381,16 +8384,16 @@
     </row>
     <row r="5" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="51"/>
       <c r="E5" s="56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
       <c r="J5" s="56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
@@ -8419,28 +8422,28 @@
     </row>
     <row r="7" spans="1:12" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="J7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -8775,16 +8778,16 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="34"/>
       <c r="E26" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
       <c r="J26" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
@@ -8838,16 +8841,16 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B29" s="34"/>
       <c r="E29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
       <c r="J29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
@@ -8917,16 +8920,16 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="34"/>
       <c r="E33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
       <c r="J33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
@@ -8965,16 +8968,16 @@
   </sheetData>
   <sheetProtection password="85EC" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="10">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/data/GlycoNet Budget Template.xlsx
+++ b/data/GlycoNet Budget Template.xlsx
@@ -26,7 +26,7 @@
     <sheet name="NPI-11" sheetId="11" r:id="rId12"/>
     <sheet name="Sheet1" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -104,12 +104,6 @@
     <t>Intra-project travel</t>
   </si>
   <si>
-    <t>Conferences (max $3K/year)</t>
-  </si>
-  <si>
-    <t>Capital Equipment (Max $5K/project)</t>
-  </si>
-  <si>
     <t>PARTNER 1:</t>
   </si>
   <si>
@@ -162,6 +156,12 @@
   </si>
   <si>
     <t>PDF2</t>
+  </si>
+  <si>
+    <t>Capital Equipment (Max $2K/project)</t>
+  </si>
+  <si>
+    <t>Conferences (max $1.5K/year)</t>
   </si>
 </sst>
 </file>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
@@ -842,10 +842,10 @@
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -858,7 +858,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
@@ -875,13 +875,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
       <c r="G5" s="33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
@@ -892,7 +892,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
@@ -904,7 +904,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H6" s="39" t="s">
         <v>6</v>
@@ -921,37 +921,37 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="J7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="L7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1228,7 +1228,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B14" s="23">
         <f>'NPI-1'!B26+'NPI-2'!B26+'NPI-3'!B26+'NPI-4'!B26+'NPI-5'!B26+'NPI-6'!B26+'NPI-7'!B26+'NPI-8'!B26+'NPI-9'!B26+'NPI-10'!B26+'NPI-11'!B26</f>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H14" s="37">
         <f>'NPI-1'!H26+'NPI-1'!Q26+'NPI-2'!H26+'NPI-2'!Q26+'NPI-3'!H26+'NPI-3'!Q26+'NPI-4'!H26+'NPI-4'!Q26+'NPI-5'!H26+'NPI-5'!Q26+'NPI-6'!H26+'NPI-6'!Q26+'NPI-7'!H26+'NPI-7'!Q26+'NPI-8'!H26+'NPI-8'!Q26+'NPI-9'!H26+'NPI-9'!Q26+'NPI-10'!H26+'NPI-10'!Q26+'NPI-11'!H26+'NPI-11'!Q26</f>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B17" s="23">
         <f>'NPI-1'!B29+'NPI-2'!B29+'NPI-3'!B29+'NPI-4'!B29+'NPI-5'!B29+'NPI-6'!B29+'NPI-7'!B29+'NPI-8'!B29+'NPI-9'!B29+'NPI-10'!B29+'NPI-11'!B29</f>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H17" s="37">
         <f>'NPI-1'!H29+'NPI-1'!Q29+'NPI-2'!H29+'NPI-2'!Q29+'NPI-3'!H29+'NPI-3'!Q29+'NPI-4'!H29+'NPI-4'!Q29+'NPI-5'!H29+'NPI-5'!Q29+'NPI-6'!H29+'NPI-6'!Q29+'NPI-7'!H29+'NPI-7'!Q29+'NPI-8'!H29+'NPI-8'!Q29+'NPI-9'!H29+'NPI-9'!Q29+'NPI-10'!H29+'NPI-10'!Q29+'NPI-11'!H29+'NPI-11'!Q29</f>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="24">
         <f>'NPI-1'!B33+'NPI-2'!B33+'NPI-3'!B33+'NPI-4'!B33+'NPI-5'!B33+'NPI-6'!B33+'NPI-7'!B33+'NPI-8'!B33+'NPI-9'!B33+'NPI-10'!B33+'NPI-11'!B33</f>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H21" s="24">
         <f>'NPI-1'!H33+'NPI-1'!Q33+'NPI-2'!H33+'NPI-2'!Q33+'NPI-3'!H33+'NPI-3'!Q33+'NPI-4'!H33+'NPI-4'!Q33+'NPI-5'!H33+'NPI-5'!Q33+'NPI-6'!H33+'NPI-6'!Q33+'NPI-7'!H33+'NPI-7'!Q33+'NPI-8'!H33+'NPI-8'!Q33+'NPI-9'!H33+'NPI-9'!Q33+'NPI-10'!H33+'NPI-10'!Q33+'NPI-11'!H33+'NPI-11'!Q33</f>
@@ -1626,7 +1626,7 @@
     <row r="34" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="E31Ve/CZOwHkarktz8nMVdnEMfTMdsDoOtUvvMIm6fAXOjH5d9MuAL+goRaDpkCNpZONVuQ5GQPWOvpgIbUtDg==" saltValue="s6pvNgSBOSX3b1amDwSAzw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5nPHCalExcjX+/dSw87f0g37jCcafRh+E/A65nJxC6hNq2FVyLQS3fyfGBhlEoNqw/5G+oIfAMoiWPAJwsqmog==" saltValue="mjCdO5N8QgXWWi8aiJMQcA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="8">
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="B1:D1"/>
@@ -1652,7 +1652,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1671,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
@@ -1684,7 +1684,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -1697,17 +1697,17 @@
         <v>9</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="42"/>
@@ -1715,10 +1715,10 @@
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
       <c r="P3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R3" s="42"/>
       <c r="S3" s="42"/>
@@ -1729,13 +1729,13 @@
     </row>
     <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
       <c r="G5" s="48" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
@@ -1744,7 +1744,7 @@
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
       <c r="P5" s="48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="48"/>
       <c r="R5" s="48"/>
@@ -1799,58 +1799,58 @@
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="J7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="L7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="S7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2725,7 +2725,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="30"/>
       <c r="R26" s="30"/>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="30"/>
       <c r="R29" s="30"/>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q33" s="30"/>
       <c r="R33" s="30"/>
@@ -3183,7 +3183,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hVgdCTOpTg77WIbRt0kTP4gKi9DFGwaOfKE1IN2DvAZZfb84dnNNp01VWonPxm4y/EP4EoZIC4tASwTMPMXi+Q==" saltValue="wBFj9pQJGJjUg2ftW3RepA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2qo9CF1ho0N/Ojeu/EFh5f4a/lV/QUBUNucXEAxCrwe6aNOR8+logguAIQEm4kas2BVD2OzH+N8Pet6uWeSzNQ==" saltValue="WEFJ+tpqcNwnBN0OuE+FZg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="B1:D1"/>
@@ -3213,8 +3213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8:M34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3233,7 +3233,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
@@ -3246,7 +3246,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -3259,17 +3259,17 @@
         <v>9</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="42"/>
@@ -3277,10 +3277,10 @@
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
       <c r="P3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R3" s="42"/>
       <c r="S3" s="42"/>
@@ -3291,13 +3291,13 @@
     </row>
     <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
       <c r="G5" s="48" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
@@ -3306,7 +3306,7 @@
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
       <c r="P5" s="48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="48"/>
       <c r="R5" s="48"/>
@@ -3361,58 +3361,58 @@
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="J7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="L7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="S7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -4287,7 +4287,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -4296,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="30"/>
       <c r="R26" s="30"/>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="30"/>
       <c r="R29" s="30"/>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -4643,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
@@ -4658,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q33" s="30"/>
       <c r="R33" s="30"/>
@@ -4745,7 +4745,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="W1XrHQoCyvnM5u2TsQPmihJ/og8rcw3OGRcfFQe5nNCDQ+ELP27tDxtYlhGuZZt5UfOGUK9gsUmjwQXhE4xFPw==" saltValue="cOKz7WAipzrO+laaryESYQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="B1:D1"/>
@@ -4776,7 +4776,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4795,7 +4795,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
@@ -4808,7 +4808,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -4821,17 +4821,17 @@
         <v>9</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="42"/>
@@ -4839,10 +4839,10 @@
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
       <c r="P3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R3" s="42"/>
       <c r="S3" s="42"/>
@@ -4853,13 +4853,13 @@
     </row>
     <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
       <c r="G5" s="48" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
@@ -4868,7 +4868,7 @@
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
       <c r="P5" s="48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="48"/>
       <c r="R5" s="48"/>
@@ -4923,58 +4923,58 @@
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="J7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="L7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="S7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -5849,7 +5849,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="30"/>
       <c r="R26" s="30"/>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="30"/>
       <c r="R29" s="30"/>
@@ -6196,7 +6196,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q33" s="30"/>
       <c r="R33" s="30"/>
@@ -6307,7 +6307,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Uq6uycfc4yPc5eXffQP/KlQRE1wTG+yU29ffTDMmtRBObDpGQWRpGxlkjEqEnrAQJqEvVnCmXTzVSOaxLWDI/A==" saltValue="V7jethIMuu3ZwyBaaSR28g==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="B1:D1"/>
@@ -6356,7 +6356,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6375,7 +6375,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
@@ -6388,7 +6388,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -6401,17 +6401,17 @@
         <v>9</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="42"/>
@@ -6419,10 +6419,10 @@
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
       <c r="P3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R3" s="42"/>
       <c r="S3" s="42"/>
@@ -6433,13 +6433,13 @@
     </row>
     <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
       <c r="G5" s="48" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
@@ -6448,7 +6448,7 @@
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
       <c r="P5" s="48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="48"/>
       <c r="R5" s="48"/>
@@ -6503,58 +6503,58 @@
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="J7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="L7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="S7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -7427,7 +7427,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -7436,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="30"/>
       <c r="R26" s="30"/>
@@ -7580,7 +7580,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -7589,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
@@ -7604,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="30"/>
       <c r="R29" s="30"/>
@@ -7774,7 +7774,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
@@ -7798,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q33" s="30"/>
       <c r="R33" s="30"/>
@@ -7885,7 +7885,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9GZKVSZ7rsx3tJVumibl4WSEDq80P3enFL2nlsjcQWrijx4ISjnTx+XkDmRfp12J7sPPMPguo/f7UQW3MnWB+g==" saltValue="cvhZ4V5yNydrbQZ3l0/R1w==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="l69SNZRBaeDLn/we4LDXe0Eyx1tJYjBE7AeZdPSbzLx5YCuhYrzRFUrFVmyi9YoN28XnT40N0YXI1+kTvkL7eA==" saltValue="HArbOzP+5jy7C9MG2Wgwhg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="H3:M3"/>
@@ -7918,7 +7918,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7937,7 +7937,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
@@ -7950,7 +7950,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -7963,17 +7963,17 @@
         <v>9</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="42"/>
@@ -7981,10 +7981,10 @@
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
       <c r="P3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R3" s="42"/>
       <c r="S3" s="42"/>
@@ -7995,13 +7995,13 @@
     </row>
     <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
       <c r="G5" s="48" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
@@ -8010,7 +8010,7 @@
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
       <c r="P5" s="48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="48"/>
       <c r="R5" s="48"/>
@@ -8065,58 +8065,58 @@
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="J7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="L7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="S7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -8263,7 +8263,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -8445,7 +8445,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -8991,7 +8991,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="30"/>
       <c r="R26" s="30"/>
@@ -9144,7 +9144,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -9153,7 +9153,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
@@ -9168,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="30"/>
       <c r="R29" s="30"/>
@@ -9346,7 +9346,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -9355,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
@@ -9370,7 +9370,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q33" s="30"/>
       <c r="R33" s="30"/>
@@ -9457,7 +9457,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WepFXw1dJyKry9qHqI0KDLMsBvFYRxCS+hm+HVV3RoTdV0pdwkM9HcSznGpFJHKVtFJdW5jl+GqCf9yDJJ9sLw==" saltValue="hilgWmm9wJIjrmFUThkB7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wTji0QFYCual5xy+JcD0ZJ0uytgQrW+t5T4B9hVEYBHv6jS/x0jflzjCyWkeCoRWBI/PE5UPqzYFWZ+uSkgrig==" saltValue="n4DFXcwqYTfFsSdmLhbRww==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="B1:D1"/>
@@ -9489,7 +9489,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9508,7 +9508,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
@@ -9521,7 +9521,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -9534,17 +9534,17 @@
         <v>9</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="42"/>
@@ -9552,10 +9552,10 @@
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
       <c r="P3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R3" s="42"/>
       <c r="S3" s="42"/>
@@ -9566,13 +9566,13 @@
     </row>
     <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
       <c r="G5" s="48" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
@@ -9581,7 +9581,7 @@
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
       <c r="P5" s="48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="48"/>
       <c r="R5" s="48"/>
@@ -9636,58 +9636,58 @@
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="J7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="L7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="S7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -10207,7 +10207,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
@@ -10562,7 +10562,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="30"/>
       <c r="R26" s="30"/>
@@ -10715,7 +10715,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -10724,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
@@ -10739,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="30"/>
       <c r="R29" s="30"/>
@@ -10913,7 +10913,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
@@ -10937,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q33" s="30"/>
       <c r="R33" s="30"/>
@@ -11024,7 +11024,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="u7Ctj1jJDlQ3idHhLuYpZt02hk0FDiAxJFcQdf3jJ7oGOmntdEBoYzXWb/Q+ynzfC5q1HdiEBwebHFu61Yia7w==" saltValue="ueitqT/5dIaX+n4pp2JYhA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YxffcSBuRUupHW0hfeB5AzPdpqxwGnrMGoWsTONgA4XQYkkw4NGqyRxQoymdal2E11Xl4tTfZXKl1Zn6iOdYtw==" saltValue="78HZyOFL96mVmDPxTM5q2g==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="B1:D1"/>
@@ -11055,7 +11055,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11074,7 +11074,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
@@ -11087,7 +11087,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -11100,17 +11100,17 @@
         <v>9</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="42"/>
@@ -11118,10 +11118,10 @@
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
       <c r="P3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R3" s="42"/>
       <c r="S3" s="42"/>
@@ -11132,13 +11132,13 @@
     </row>
     <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
       <c r="G5" s="48" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
@@ -11147,7 +11147,7 @@
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
       <c r="P5" s="48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="48"/>
       <c r="R5" s="48"/>
@@ -11202,58 +11202,58 @@
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="J7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="L7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="S7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -12128,7 +12128,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -12137,7 +12137,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
@@ -12152,7 +12152,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="30"/>
       <c r="R26" s="30"/>
@@ -12281,7 +12281,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -12290,7 +12290,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
@@ -12305,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="30"/>
       <c r="R29" s="30"/>
@@ -12475,7 +12475,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -12484,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
@@ -12499,7 +12499,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q33" s="30"/>
       <c r="R33" s="30"/>
@@ -12586,7 +12586,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AGjaMVYhwEusHt2E01UQ+uJUEdozg1kAIoHYkZh/9OWKqFga86nFrIsxPrfXk86WyLYnsywcsUJiuYfhIzsQiQ==" saltValue="5Fu5sB9gw35cGJCOo98AMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qSNd9cSUFIjZOQgL34EmsJej1iLpVFjvTk80McWcf8Np6IGd6Qe9WW+olnxzcuMMiPWJXeEkLiuHG4Y2fJ2rQw==" saltValue="oALSLLClJVyu4PDcLaBX0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="B1:D1"/>
@@ -12617,7 +12617,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12636,7 +12636,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
@@ -12649,7 +12649,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -12662,17 +12662,17 @@
         <v>9</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="42"/>
@@ -12680,10 +12680,10 @@
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
       <c r="P3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R3" s="42"/>
       <c r="S3" s="42"/>
@@ -12694,13 +12694,13 @@
     </row>
     <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
       <c r="G5" s="48" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
@@ -12709,7 +12709,7 @@
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
       <c r="P5" s="48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="48"/>
       <c r="R5" s="48"/>
@@ -12764,58 +12764,58 @@
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="J7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="L7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="S7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -13690,7 +13690,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -13699,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
@@ -13714,7 +13714,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="30"/>
       <c r="R26" s="30"/>
@@ -13843,7 +13843,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -13852,7 +13852,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
@@ -13867,7 +13867,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="30"/>
       <c r="R29" s="30"/>
@@ -14037,7 +14037,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -14046,7 +14046,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
@@ -14061,7 +14061,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q33" s="30"/>
       <c r="R33" s="30"/>
@@ -14148,7 +14148,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QkxfeI5UD4hWkPILle/Tr2pRcYi56ImMscMTM7STk45VYlOtznnlzleKo1AtwVpBoq0tq8thFucq2Fd1WF4xdg==" saltValue="gANQd5E6ktiVUjPEoVxvYA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TWw6sqNVGhRMVSq8nukk0wDzA2/AbavjT7Yn65f6T9XAH8AfcZPW0/p11qKolBdP0Cb9fBGmShkhnIohuoMFvg==" saltValue="BCU3XY1JLmYs8xV6ilVqJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="B1:D1"/>
@@ -14178,8 +14178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8:M34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14198,7 +14198,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
@@ -14211,7 +14211,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -14224,17 +14224,17 @@
         <v>9</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="42"/>
@@ -14242,10 +14242,10 @@
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
       <c r="P3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R3" s="42"/>
       <c r="S3" s="42"/>
@@ -14256,13 +14256,13 @@
     </row>
     <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
       <c r="G5" s="48" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
@@ -14271,7 +14271,7 @@
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
       <c r="P5" s="48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="48"/>
       <c r="R5" s="48"/>
@@ -14326,58 +14326,58 @@
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="J7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="L7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="S7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -15252,7 +15252,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -15261,7 +15261,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
@@ -15276,7 +15276,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="30"/>
       <c r="R26" s="30"/>
@@ -15405,7 +15405,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -15414,7 +15414,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
@@ -15429,7 +15429,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="30"/>
       <c r="R29" s="30"/>
@@ -15599,7 +15599,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -15608,7 +15608,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
@@ -15623,7 +15623,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q33" s="30"/>
       <c r="R33" s="30"/>
@@ -15710,7 +15710,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nWuFy121ziH1IEHTKZvnATRnfOplSrlMs1bP9a08zsD9hV2DPIgN8thK0s2UJQvnPUG76qtVK5/tLVmvnLsLsg==" saltValue="/c9jk/UHQIgmXGY5AZfVKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IzXC3A2n6p9m2gpi6JBQk4RouW5WyYjRGBnLztXjF9qRKME41HT2bbCY9JacRjlKEoYrmUfEVS9W6xUdpPxvqQ==" saltValue="IZq7o/yztR0r89bjwXBgZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="B1:D1"/>
@@ -15740,8 +15740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15760,7 +15760,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
@@ -15773,7 +15773,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -15786,17 +15786,17 @@
         <v>9</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="42"/>
@@ -15804,10 +15804,10 @@
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
       <c r="P3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R3" s="42"/>
       <c r="S3" s="42"/>
@@ -15818,13 +15818,13 @@
     </row>
     <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
       <c r="G5" s="48" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
@@ -15833,7 +15833,7 @@
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
       <c r="P5" s="48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="48"/>
       <c r="R5" s="48"/>
@@ -15888,58 +15888,58 @@
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="J7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="L7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="S7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -16814,7 +16814,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -16823,7 +16823,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
@@ -16838,7 +16838,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="30"/>
       <c r="R26" s="30"/>
@@ -16967,7 +16967,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -16976,7 +16976,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
@@ -16991,7 +16991,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="30"/>
       <c r="R29" s="30"/>
@@ -17161,7 +17161,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -17170,7 +17170,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
@@ -17185,7 +17185,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q33" s="30"/>
       <c r="R33" s="30"/>
@@ -17272,7 +17272,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="61ryK4637OcVl4Oy+08lIWYtGvv7bmUJUhmoFG+8F89UMf94ZVeQb+rXm0TIYrTjL7ZCM+5+N73BUW/i5RMr3g==" saltValue="wOC3g4UG+adrdJbjDmnSWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ov5WmPkqNvigkOV26EB0q+GLQSu9pcSQQf7OwmYO11sGcg9eKL47kSEvEP0b0hSdJBdeavKFkN1te3sbMl5Buw==" saltValue="if0vSFlwBa99BPhC72drsA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="B1:D1"/>
@@ -17303,7 +17303,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17322,7 +17322,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
@@ -17335,7 +17335,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -17348,17 +17348,17 @@
         <v>9</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="42"/>
@@ -17366,10 +17366,10 @@
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
       <c r="P3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R3" s="42"/>
       <c r="S3" s="42"/>
@@ -17380,13 +17380,13 @@
     </row>
     <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
       <c r="G5" s="48" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
@@ -17395,7 +17395,7 @@
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
       <c r="P5" s="48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="48"/>
       <c r="R5" s="48"/>
@@ -17450,58 +17450,58 @@
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="J7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="L7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="S7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -18376,7 +18376,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -18385,7 +18385,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
@@ -18400,7 +18400,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="30"/>
       <c r="R26" s="30"/>
@@ -18529,7 +18529,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -18538,7 +18538,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
@@ -18553,7 +18553,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="30"/>
       <c r="R29" s="30"/>
@@ -18723,7 +18723,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -18732,7 +18732,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
@@ -18747,7 +18747,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q33" s="30"/>
       <c r="R33" s="30"/>
@@ -18834,7 +18834,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Mx7fxS+OawE56gfk5u0+Wtem0vBVN4eWfC2maIole7Ab6dLvRRaNheWY3RXwhzA8eh5uS5rGHKxzS/QIkZTvbw==" saltValue="jSP5be8IdKmWNMwBR5fL5A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Maec1/X6fjsWfF5X+cBRl4vbFoCHNWHrWMKHgqtk4R6aZINfbR/cMRxcJSQcm4VbrKZSI33rcOZeHmtg+0fbKw==" saltValue="b/kpo+kxFFLCvofONOq9Kw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="B1:D1"/>

--- a/data/GlycoNet Budget Template.xlsx
+++ b/data/GlycoNet Budget Template.xlsx
@@ -158,10 +158,10 @@
     <t>PDF2</t>
   </si>
   <si>
-    <t>Capital Equipment (Max $2K/project)</t>
+    <t>Capital Equipment (Max $5K/project)</t>
   </si>
   <si>
-    <t>Conferences (max $1.5K/year)</t>
+    <t>Conferences (max $2K/year)</t>
   </si>
 </sst>
 </file>
@@ -476,14 +476,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -814,7 +814,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,7 +1626,7 @@
     <row r="34" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5nPHCalExcjX+/dSw87f0g37jCcafRh+E/A65nJxC6hNq2FVyLQS3fyfGBhlEoNqw/5G+oIfAMoiWPAJwsqmog==" saltValue="mjCdO5N8QgXWWi8aiJMQcA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="U7ea6YggL398sx1VUMgd0ASoi+tQxJRBER7VKXbtWdcVMtguxUy8/dZSCKh5LFHUbDDt+OsL/7LjkCHw3MUyRA==" saltValue="X2DoF8L258IaVV3t9VKI5g==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="8">
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="B1:D1"/>
@@ -1652,7 +1652,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1734,24 +1734,24 @@
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="P5" s="48" t="s">
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="P5" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
     </row>
     <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1769,33 +1769,33 @@
       <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="46" t="s">
+      <c r="I6" s="48"/>
+      <c r="J6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="46" t="s">
+      <c r="K6" s="48"/>
+      <c r="L6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="47"/>
+      <c r="M6" s="48"/>
       <c r="P6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="46" t="s">
+      <c r="Q6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="47"/>
-      <c r="S6" s="46" t="s">
+      <c r="R6" s="48"/>
+      <c r="S6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="47"/>
-      <c r="U6" s="46" t="s">
+      <c r="T6" s="48"/>
+      <c r="U6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="47"/>
+      <c r="V6" s="48"/>
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -3183,13 +3183,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2qo9CF1ho0N/Ojeu/EFh5f4a/lV/QUBUNucXEAxCrwe6aNOR8+logguAIQEm4kas2BVD2OzH+N8Pet6uWeSzNQ==" saltValue="WEFJ+tpqcNwnBN0OuE+FZg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="L6yynm9VJqqMYwSV2B//lfJcujCv0aA8OH5MKHnsQAiBekmPht8R0WFLyRAwwxcDVpiTAoIcXKioNUXVvvcRaw==" saltValue="tjzVFDU27K8Wz4O+MHxeAw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:M3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="P5:V5"/>
@@ -3199,6 +3194,11 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3296,24 +3296,24 @@
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="P5" s="48" t="s">
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="P5" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
     </row>
     <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -3331,33 +3331,33 @@
       <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="46" t="s">
+      <c r="I6" s="48"/>
+      <c r="J6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="46" t="s">
+      <c r="K6" s="48"/>
+      <c r="L6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="47"/>
+      <c r="M6" s="48"/>
       <c r="P6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="46" t="s">
+      <c r="Q6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="47"/>
-      <c r="S6" s="46" t="s">
+      <c r="R6" s="48"/>
+      <c r="S6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="47"/>
-      <c r="U6" s="46" t="s">
+      <c r="T6" s="48"/>
+      <c r="U6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="47"/>
+      <c r="V6" s="48"/>
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -4745,13 +4745,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="W1XrHQoCyvnM5u2TsQPmihJ/og8rcw3OGRcfFQe5nNCDQ+ELP27tDxtYlhGuZZt5UfOGUK9gsUmjwQXhE4xFPw==" saltValue="cOKz7WAipzrO+laaryESYQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YDhF6lTm/XcBPxdgpe2vJLdtDuIDICuwlFZ5CuNg7tzS0GIPXsPyq+Pz/S6oofFM4GJIHePkAEH8jpkKXGtAMA==" saltValue="dLFaDr+21EH5LdcegpyuuQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:M3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="P5:V5"/>
@@ -4761,6 +4756,11 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -4776,7 +4776,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4858,24 +4858,24 @@
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="P5" s="48" t="s">
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="P5" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
     </row>
     <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -4893,33 +4893,33 @@
       <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="46" t="s">
+      <c r="I6" s="48"/>
+      <c r="J6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="46" t="s">
+      <c r="K6" s="48"/>
+      <c r="L6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="47"/>
+      <c r="M6" s="48"/>
       <c r="P6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="46" t="s">
+      <c r="Q6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="47"/>
-      <c r="S6" s="46" t="s">
+      <c r="R6" s="48"/>
+      <c r="S6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="47"/>
-      <c r="U6" s="46" t="s">
+      <c r="T6" s="48"/>
+      <c r="U6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="47"/>
+      <c r="V6" s="48"/>
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -6307,13 +6307,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Uq6uycfc4yPc5eXffQP/KlQRE1wTG+yU29ffTDMmtRBObDpGQWRpGxlkjEqEnrAQJqEvVnCmXTzVSOaxLWDI/A==" saltValue="V7jethIMuu3ZwyBaaSR28g==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2GZq28CgbetS2IOQEpCiCEPeTW/rbSHppYIBCc8I8+19/Ht5TwJki2D5xHNZyGPZVG1m8DbCtHa6dcJHGqw+8g==" saltValue="Y7RjpRGqvYe2zz5UGNmHiQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:M3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="P5:V5"/>
@@ -6323,6 +6318,11 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6356,7 +6356,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6438,24 +6438,24 @@
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="P5" s="48" t="s">
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="P5" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
     </row>
     <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -6473,33 +6473,33 @@
       <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="46" t="s">
+      <c r="I6" s="48"/>
+      <c r="J6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="46" t="s">
+      <c r="K6" s="48"/>
+      <c r="L6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="47"/>
+      <c r="M6" s="48"/>
       <c r="P6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="46" t="s">
+      <c r="Q6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="47"/>
-      <c r="S6" s="46" t="s">
+      <c r="R6" s="48"/>
+      <c r="S6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="47"/>
-      <c r="U6" s="46" t="s">
+      <c r="T6" s="48"/>
+      <c r="U6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="47"/>
+      <c r="V6" s="48"/>
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -7885,8 +7885,15 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="l69SNZRBaeDLn/we4LDXe0Eyx1tJYjBE7AeZdPSbzLx5YCuhYrzRFUrFVmyi9YoN28XnT40N0YXI1+kTvkL7eA==" saltValue="HArbOzP+5jy7C9MG2Wgwhg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sDlCHP3kQtmUJ5coO1g53Uz7Q7+IJ6WEMaKHr+1bCjHgaHQCsHuIMj9giSmvofWLKctmiaNvWX51JflkL9cS/w==" saltValue="uMuFJ0E0ambr3M7PLdAp+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="P5:V5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="G5:M5"/>
@@ -7894,13 +7901,6 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="P5:V5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -8000,24 +8000,24 @@
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="P5" s="48" t="s">
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="P5" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
     </row>
     <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -8035,33 +8035,33 @@
       <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="46" t="s">
+      <c r="I6" s="48"/>
+      <c r="J6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="46" t="s">
+      <c r="K6" s="48"/>
+      <c r="L6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="47"/>
+      <c r="M6" s="48"/>
       <c r="P6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="46" t="s">
+      <c r="Q6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="47"/>
-      <c r="S6" s="46" t="s">
+      <c r="R6" s="48"/>
+      <c r="S6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="47"/>
-      <c r="U6" s="46" t="s">
+      <c r="T6" s="48"/>
+      <c r="U6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="47"/>
+      <c r="V6" s="48"/>
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -9457,13 +9457,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wTji0QFYCual5xy+JcD0ZJ0uytgQrW+t5T4B9hVEYBHv6jS/x0jflzjCyWkeCoRWBI/PE5UPqzYFWZ+uSkgrig==" saltValue="n4DFXcwqYTfFsSdmLhbRww==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0VgfXvMUGR9won/3fNjKb1EU7HT0ivK9jK3E5TZcpxj5V4YSppMyln+WaAPPWxM05ziltPaXWTo8AOAwE8FSOQ==" saltValue="KDkgbVia8GFLyGYBfAlaXg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:M3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="P5:V5"/>
@@ -9473,6 +9468,11 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -9571,24 +9571,24 @@
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="P5" s="48" t="s">
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="P5" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
     </row>
     <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -9606,33 +9606,33 @@
       <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="46" t="s">
+      <c r="I6" s="48"/>
+      <c r="J6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="46" t="s">
+      <c r="K6" s="48"/>
+      <c r="L6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="47"/>
+      <c r="M6" s="48"/>
       <c r="P6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="46" t="s">
+      <c r="Q6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="47"/>
-      <c r="S6" s="46" t="s">
+      <c r="R6" s="48"/>
+      <c r="S6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="47"/>
-      <c r="U6" s="46" t="s">
+      <c r="T6" s="48"/>
+      <c r="U6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="47"/>
+      <c r="V6" s="48"/>
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -11024,13 +11024,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YxffcSBuRUupHW0hfeB5AzPdpqxwGnrMGoWsTONgA4XQYkkw4NGqyRxQoymdal2E11Xl4tTfZXKl1Zn6iOdYtw==" saltValue="78HZyOFL96mVmDPxTM5q2g==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4vnNOA7TwKdBUYVusE7AH+QkPt2f9zriR9vIudY+3rsimTWlzb34LeZAh6tQuU5o+7COtud16WY19u3D1yyXAg==" saltValue="6rC4tPa0Pkc76+SJ4jTxew==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:M3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="P5:V5"/>
@@ -11040,6 +11035,11 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -11137,24 +11137,24 @@
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="P5" s="48" t="s">
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="P5" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
     </row>
     <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -11172,33 +11172,33 @@
       <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="46" t="s">
+      <c r="I6" s="48"/>
+      <c r="J6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="46" t="s">
+      <c r="K6" s="48"/>
+      <c r="L6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="47"/>
+      <c r="M6" s="48"/>
       <c r="P6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="46" t="s">
+      <c r="Q6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="47"/>
-      <c r="S6" s="46" t="s">
+      <c r="R6" s="48"/>
+      <c r="S6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="47"/>
-      <c r="U6" s="46" t="s">
+      <c r="T6" s="48"/>
+      <c r="U6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="47"/>
+      <c r="V6" s="48"/>
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -12586,13 +12586,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qSNd9cSUFIjZOQgL34EmsJej1iLpVFjvTk80McWcf8Np6IGd6Qe9WW+olnxzcuMMiPWJXeEkLiuHG4Y2fJ2rQw==" saltValue="oALSLLClJVyu4PDcLaBX0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OFQBinI4/WuslGzh20HgMN84rwWUWWfVxpmSOzgRAtCfq32W8xYV2h/Z6r4vCyL267vu/dSxtlUuTAMKyOvxoQ==" saltValue="etvVQu6FMIwHffOM7xzorA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:M3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="P5:V5"/>
@@ -12602,6 +12597,11 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -12699,24 +12699,24 @@
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="P5" s="48" t="s">
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="P5" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
     </row>
     <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -12734,33 +12734,33 @@
       <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="46" t="s">
+      <c r="I6" s="48"/>
+      <c r="J6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="46" t="s">
+      <c r="K6" s="48"/>
+      <c r="L6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="47"/>
+      <c r="M6" s="48"/>
       <c r="P6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="46" t="s">
+      <c r="Q6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="47"/>
-      <c r="S6" s="46" t="s">
+      <c r="R6" s="48"/>
+      <c r="S6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="47"/>
-      <c r="U6" s="46" t="s">
+      <c r="T6" s="48"/>
+      <c r="U6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="47"/>
+      <c r="V6" s="48"/>
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -14148,13 +14148,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TWw6sqNVGhRMVSq8nukk0wDzA2/AbavjT7Yn65f6T9XAH8AfcZPW0/p11qKolBdP0Cb9fBGmShkhnIohuoMFvg==" saltValue="BCU3XY1JLmYs8xV6ilVqJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0NO/A6w/R1MhGMlUA/Ohji9KO/a5KSbgnYBjrxkLnpO/CMwuyW84XHM608c/L96xM6HbfeQGVsnOP04HVNnCeA==" saltValue="eIxvtlzzl9M5pRFg36tEoA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:M3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="P5:V5"/>
@@ -14164,6 +14159,11 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -14261,24 +14261,24 @@
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="P5" s="48" t="s">
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="P5" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
     </row>
     <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -14296,33 +14296,33 @@
       <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="46" t="s">
+      <c r="I6" s="48"/>
+      <c r="J6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="46" t="s">
+      <c r="K6" s="48"/>
+      <c r="L6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="47"/>
+      <c r="M6" s="48"/>
       <c r="P6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="46" t="s">
+      <c r="Q6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="47"/>
-      <c r="S6" s="46" t="s">
+      <c r="R6" s="48"/>
+      <c r="S6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="47"/>
-      <c r="U6" s="46" t="s">
+      <c r="T6" s="48"/>
+      <c r="U6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="47"/>
+      <c r="V6" s="48"/>
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -15710,13 +15710,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IzXC3A2n6p9m2gpi6JBQk4RouW5WyYjRGBnLztXjF9qRKME41HT2bbCY9JacRjlKEoYrmUfEVS9W6xUdpPxvqQ==" saltValue="IZq7o/yztR0r89bjwXBgZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BcATWoJQQ8SraYdW14H8s28eJtf65BEpql9BiuK77YKEaH/G/sXLeNXI8Tpa9MpODCKmR3il8dev4q4JcBjTvA==" saltValue="zQgUedpTeDafKzaF7fmRyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:M3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="P5:V5"/>
@@ -15726,6 +15721,11 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -15741,7 +15741,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15823,24 +15823,24 @@
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="P5" s="48" t="s">
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="P5" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
     </row>
     <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -15858,33 +15858,33 @@
       <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="46" t="s">
+      <c r="I6" s="48"/>
+      <c r="J6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="46" t="s">
+      <c r="K6" s="48"/>
+      <c r="L6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="47"/>
+      <c r="M6" s="48"/>
       <c r="P6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="46" t="s">
+      <c r="Q6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="47"/>
-      <c r="S6" s="46" t="s">
+      <c r="R6" s="48"/>
+      <c r="S6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="47"/>
-      <c r="U6" s="46" t="s">
+      <c r="T6" s="48"/>
+      <c r="U6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="47"/>
+      <c r="V6" s="48"/>
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -17272,13 +17272,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ov5WmPkqNvigkOV26EB0q+GLQSu9pcSQQf7OwmYO11sGcg9eKL47kSEvEP0b0hSdJBdeavKFkN1te3sbMl5Buw==" saltValue="if0vSFlwBa99BPhC72drsA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3sRB6vDP4SMqfvDIcqlzV1BAgwaC0qDVdx3A6TOzvUlVU1CULFGtl4Hjw/6d+2I7K8PiqD+jAZ+WPwzfV6ALLA==" saltValue="R2XEen/yRiuOHZogZAcbeA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:M3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="P5:V5"/>
@@ -17288,6 +17283,11 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -17385,24 +17385,24 @@
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="P5" s="48" t="s">
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="P5" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
     </row>
     <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -17420,33 +17420,33 @@
       <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="46" t="s">
+      <c r="I6" s="48"/>
+      <c r="J6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="46" t="s">
+      <c r="K6" s="48"/>
+      <c r="L6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="47"/>
+      <c r="M6" s="48"/>
       <c r="P6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="46" t="s">
+      <c r="Q6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="47"/>
-      <c r="S6" s="46" t="s">
+      <c r="R6" s="48"/>
+      <c r="S6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="47"/>
-      <c r="U6" s="46" t="s">
+      <c r="T6" s="48"/>
+      <c r="U6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="47"/>
+      <c r="V6" s="48"/>
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -18834,13 +18834,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Maec1/X6fjsWfF5X+cBRl4vbFoCHNWHrWMKHgqtk4R6aZINfbR/cMRxcJSQcm4VbrKZSI33rcOZeHmtg+0fbKw==" saltValue="b/kpo+kxFFLCvofONOq9Kw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fj25z2xD9gCu32aEf8ZvgxNJZYapWNgJwA/2zAe5QefDLBvzjm6ScNz/W1pSDyfBNjH45j9VwLbtuMvmI1NdBA==" saltValue="PXjb9tlZTPXuznbUzV72bg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:M3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="P5:V5"/>
@@ -18850,6 +18845,11 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/data/GlycoNet Budget Template.xlsx
+++ b/data/GlycoNet Budget Template.xlsx
@@ -161,7 +161,7 @@
     <t>Capital Equipment (Max $5K/project)</t>
   </si>
   <si>
-    <t>Conferences (max $2K/year)</t>
+    <t>Conferences (max $3K/year)</t>
   </si>
 </sst>
 </file>
@@ -476,14 +476,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -814,7 +814,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,7 +1626,7 @@
     <row r="34" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="U7ea6YggL398sx1VUMgd0ASoi+tQxJRBER7VKXbtWdcVMtguxUy8/dZSCKh5LFHUbDDt+OsL/7LjkCHw3MUyRA==" saltValue="X2DoF8L258IaVV3t9VKI5g==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fpQ43eG43/bfKyYk26jZJF8uXscud1fegKooQomwQZs7ee/a1JW6chmhyiW/EZjqqtMrhptjmnuhNc9ZGn4pzg==" saltValue="C2kk5CwDTJA6vY6orSdDgw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="8">
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="B1:D1"/>
@@ -1734,24 +1734,24 @@
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="P5" s="46" t="s">
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="P5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
     </row>
     <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1769,33 +1769,33 @@
       <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="47" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="47" t="s">
+      <c r="K6" s="47"/>
+      <c r="L6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="48"/>
+      <c r="M6" s="47"/>
       <c r="P6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="47" t="s">
+      <c r="Q6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="48"/>
-      <c r="S6" s="47" t="s">
+      <c r="R6" s="47"/>
+      <c r="S6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="48"/>
-      <c r="U6" s="47" t="s">
+      <c r="T6" s="47"/>
+      <c r="U6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="48"/>
+      <c r="V6" s="47"/>
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -3183,8 +3183,13 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="L6yynm9VJqqMYwSV2B//lfJcujCv0aA8OH5MKHnsQAiBekmPht8R0WFLyRAwwxcDVpiTAoIcXKioNUXVvvcRaw==" saltValue="tjzVFDU27K8Wz4O+MHxeAw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5FwKuAkwH0jLtPm5XeM/U3pQ62OJwgIWxG35xRCSdB67AZSLhCh89MuszfkUSaoZGJAd3dfWOIDUEoZSQV7TVg==" saltValue="KMipz3rZMDjB95z4To9ZSg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:M3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="P5:V5"/>
@@ -3194,11 +3199,6 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3296,24 +3296,24 @@
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="P5" s="46" t="s">
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="P5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
     </row>
     <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -3331,33 +3331,33 @@
       <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="47" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="47" t="s">
+      <c r="K6" s="47"/>
+      <c r="L6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="48"/>
+      <c r="M6" s="47"/>
       <c r="P6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="47" t="s">
+      <c r="Q6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="48"/>
-      <c r="S6" s="47" t="s">
+      <c r="R6" s="47"/>
+      <c r="S6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="48"/>
-      <c r="U6" s="47" t="s">
+      <c r="T6" s="47"/>
+      <c r="U6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="48"/>
+      <c r="V6" s="47"/>
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -4745,8 +4745,13 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YDhF6lTm/XcBPxdgpe2vJLdtDuIDICuwlFZ5CuNg7tzS0GIPXsPyq+Pz/S6oofFM4GJIHePkAEH8jpkKXGtAMA==" saltValue="dLFaDr+21EH5LdcegpyuuQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3fZJGRdwTB31CuQdwL0wQV37vyXuCPoRQUlF6x+RpsF1OhndXQRrfc2+sIY+7OU1g+KuwW7g/rl8vjLBkIzHJg==" saltValue="6dsaoh4/TL9vKlIy78z32A==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:M3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="P5:V5"/>
@@ -4756,11 +4761,6 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -4858,24 +4858,24 @@
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="P5" s="46" t="s">
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="P5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
     </row>
     <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -4893,33 +4893,33 @@
       <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="47" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="47" t="s">
+      <c r="K6" s="47"/>
+      <c r="L6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="48"/>
+      <c r="M6" s="47"/>
       <c r="P6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="47" t="s">
+      <c r="Q6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="48"/>
-      <c r="S6" s="47" t="s">
+      <c r="R6" s="47"/>
+      <c r="S6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="48"/>
-      <c r="U6" s="47" t="s">
+      <c r="T6" s="47"/>
+      <c r="U6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="48"/>
+      <c r="V6" s="47"/>
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -6307,8 +6307,13 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2GZq28CgbetS2IOQEpCiCEPeTW/rbSHppYIBCc8I8+19/Ht5TwJki2D5xHNZyGPZVG1m8DbCtHa6dcJHGqw+8g==" saltValue="Y7RjpRGqvYe2zz5UGNmHiQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="i5+o2Gm4Epho+L4BjkGsxjp7yadps9qrw3YYVQF1rgNoLAPUwB1jXuH9Warp4P4BWUShP6ByrbJLs+OPYW2Byg==" saltValue="6IztlWeYXQFREpO3MKbd7g==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:M3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="P5:V5"/>
@@ -6318,11 +6323,6 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6356,7 +6356,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6438,24 +6438,24 @@
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="P5" s="46" t="s">
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="P5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
     </row>
     <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -6473,33 +6473,33 @@
       <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="47" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="47" t="s">
+      <c r="K6" s="47"/>
+      <c r="L6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="48"/>
+      <c r="M6" s="47"/>
       <c r="P6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="47" t="s">
+      <c r="Q6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="48"/>
-      <c r="S6" s="47" t="s">
+      <c r="R6" s="47"/>
+      <c r="S6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="48"/>
-      <c r="U6" s="47" t="s">
+      <c r="T6" s="47"/>
+      <c r="U6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="48"/>
+      <c r="V6" s="47"/>
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -7885,8 +7885,15 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sDlCHP3kQtmUJ5coO1g53Uz7Q7+IJ6WEMaKHr+1bCjHgaHQCsHuIMj9giSmvofWLKctmiaNvWX51JflkL9cS/w==" saltValue="uMuFJ0E0ambr3M7PLdAp+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AR4+aK+PMELqVDY8jocE9S/NWSaenWLEUmlID8m6TLk170uLAL1YOeDuVtKP3P13OKdPu2x0O2o9Pf8XlkToEA==" saltValue="AvYOE2H25mf/AtSYw/edgg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A5:D5"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="H6:I6"/>
@@ -7894,13 +7901,6 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -8000,24 +8000,24 @@
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="P5" s="46" t="s">
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="P5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
     </row>
     <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -8035,33 +8035,33 @@
       <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="47" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="47" t="s">
+      <c r="K6" s="47"/>
+      <c r="L6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="48"/>
+      <c r="M6" s="47"/>
       <c r="P6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="47" t="s">
+      <c r="Q6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="48"/>
-      <c r="S6" s="47" t="s">
+      <c r="R6" s="47"/>
+      <c r="S6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="48"/>
-      <c r="U6" s="47" t="s">
+      <c r="T6" s="47"/>
+      <c r="U6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="48"/>
+      <c r="V6" s="47"/>
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -9457,8 +9457,13 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0VgfXvMUGR9won/3fNjKb1EU7HT0ivK9jK3E5TZcpxj5V4YSppMyln+WaAPPWxM05ziltPaXWTo8AOAwE8FSOQ==" saltValue="KDkgbVia8GFLyGYBfAlaXg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lckIefm7ib0jiLKwEeVG/2CUd854VYOFAeR+ZziKWgyKVdcbBX2wTpqkRO/C71G71mzHVAb3hvUrubryZMaoDg==" saltValue="asGtqxUjEAj/0Ce10fKtnw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:M3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="P5:V5"/>
@@ -9468,11 +9473,6 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -9571,24 +9571,24 @@
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="P5" s="46" t="s">
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="P5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
     </row>
     <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -9606,33 +9606,33 @@
       <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="47" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="47" t="s">
+      <c r="K6" s="47"/>
+      <c r="L6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="48"/>
+      <c r="M6" s="47"/>
       <c r="P6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="47" t="s">
+      <c r="Q6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="48"/>
-      <c r="S6" s="47" t="s">
+      <c r="R6" s="47"/>
+      <c r="S6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="48"/>
-      <c r="U6" s="47" t="s">
+      <c r="T6" s="47"/>
+      <c r="U6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="48"/>
+      <c r="V6" s="47"/>
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -11024,8 +11024,13 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4vnNOA7TwKdBUYVusE7AH+QkPt2f9zriR9vIudY+3rsimTWlzb34LeZAh6tQuU5o+7COtud16WY19u3D1yyXAg==" saltValue="6rC4tPa0Pkc76+SJ4jTxew==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7hce55Cz+H65eMB3XWcXA0klkfhovu9YtobeZwlBDG1kZdH5DspPkUngo/6TYhYhb0aSw8/nGPyiLbbpNy45GA==" saltValue="dzGI/4B1rZNzClTM/EatUw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:M3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="P5:V5"/>
@@ -11035,11 +11040,6 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -11137,24 +11137,24 @@
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="P5" s="46" t="s">
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="P5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
     </row>
     <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -11172,33 +11172,33 @@
       <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="47" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="47" t="s">
+      <c r="K6" s="47"/>
+      <c r="L6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="48"/>
+      <c r="M6" s="47"/>
       <c r="P6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="47" t="s">
+      <c r="Q6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="48"/>
-      <c r="S6" s="47" t="s">
+      <c r="R6" s="47"/>
+      <c r="S6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="48"/>
-      <c r="U6" s="47" t="s">
+      <c r="T6" s="47"/>
+      <c r="U6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="48"/>
+      <c r="V6" s="47"/>
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -12586,8 +12586,13 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OFQBinI4/WuslGzh20HgMN84rwWUWWfVxpmSOzgRAtCfq32W8xYV2h/Z6r4vCyL267vu/dSxtlUuTAMKyOvxoQ==" saltValue="etvVQu6FMIwHffOM7xzorA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0WjE4VMWMryu9D2LPv89d4lFcA55u9Z4eACYiv07ecK4KmVPcjF6imzuSsZKMNd12/Hg6riX0cbkbBwCgo3OqQ==" saltValue="eccFYlsgSIM8THlesQQG/w==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:M3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="P5:V5"/>
@@ -12597,11 +12602,6 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -12699,24 +12699,24 @@
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="P5" s="46" t="s">
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="P5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
     </row>
     <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -12734,33 +12734,33 @@
       <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="47" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="47" t="s">
+      <c r="K6" s="47"/>
+      <c r="L6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="48"/>
+      <c r="M6" s="47"/>
       <c r="P6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="47" t="s">
+      <c r="Q6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="48"/>
-      <c r="S6" s="47" t="s">
+      <c r="R6" s="47"/>
+      <c r="S6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="48"/>
-      <c r="U6" s="47" t="s">
+      <c r="T6" s="47"/>
+      <c r="U6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="48"/>
+      <c r="V6" s="47"/>
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -14148,8 +14148,13 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0NO/A6w/R1MhGMlUA/Ohji9KO/a5KSbgnYBjrxkLnpO/CMwuyW84XHM608c/L96xM6HbfeQGVsnOP04HVNnCeA==" saltValue="eIxvtlzzl9M5pRFg36tEoA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Za7UaVDkEDkcoRg95QK0H66dJZHB10LiyfvO+vMTxFoOd0zJF300Ytm0HX5b5nf9xJE3W3pD2o0NX7i+yJx/cQ==" saltValue="u2PnnFP8Ra0VFAQruMaxXg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:M3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="P5:V5"/>
@@ -14159,11 +14164,6 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -14261,24 +14261,24 @@
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="P5" s="46" t="s">
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="P5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
     </row>
     <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -14296,33 +14296,33 @@
       <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="47" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="47" t="s">
+      <c r="K6" s="47"/>
+      <c r="L6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="48"/>
+      <c r="M6" s="47"/>
       <c r="P6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="47" t="s">
+      <c r="Q6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="48"/>
-      <c r="S6" s="47" t="s">
+      <c r="R6" s="47"/>
+      <c r="S6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="48"/>
-      <c r="U6" s="47" t="s">
+      <c r="T6" s="47"/>
+      <c r="U6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="48"/>
+      <c r="V6" s="47"/>
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -15710,8 +15710,13 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BcATWoJQQ8SraYdW14H8s28eJtf65BEpql9BiuK77YKEaH/G/sXLeNXI8Tpa9MpODCKmR3il8dev4q4JcBjTvA==" saltValue="zQgUedpTeDafKzaF7fmRyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zm8PF2AWrRNsXd9RFXgb1LTQIVBz0n+OV14mNSh88eTiylFSDpJpj7GrTfPhu84J2R0ur2igQXSrLoluYdVT4Q==" saltValue="sGsJbz3FUusaexvgcwSwRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:M3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="P5:V5"/>
@@ -15721,11 +15726,6 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -15741,7 +15741,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15823,24 +15823,24 @@
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="P5" s="46" t="s">
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="P5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
     </row>
     <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -15858,33 +15858,33 @@
       <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="47" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="47" t="s">
+      <c r="K6" s="47"/>
+      <c r="L6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="48"/>
+      <c r="M6" s="47"/>
       <c r="P6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="47" t="s">
+      <c r="Q6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="48"/>
-      <c r="S6" s="47" t="s">
+      <c r="R6" s="47"/>
+      <c r="S6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="48"/>
-      <c r="U6" s="47" t="s">
+      <c r="T6" s="47"/>
+      <c r="U6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="48"/>
+      <c r="V6" s="47"/>
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -17272,8 +17272,13 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3sRB6vDP4SMqfvDIcqlzV1BAgwaC0qDVdx3A6TOzvUlVU1CULFGtl4Hjw/6d+2I7K8PiqD+jAZ+WPwzfV6ALLA==" saltValue="R2XEen/yRiuOHZogZAcbeA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xAQPyifDn8OXOXhsuHBgHfgV11cOGMpylGzc8eDCamyw8JCf3lFvizAZb3/rtoEV5B1KtqWVb05bUz9B1/Z+ig==" saltValue="3iL46mbAHhHsedcvpegVnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:M3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="P5:V5"/>
@@ -17283,11 +17288,6 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -17385,24 +17385,24 @@
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="P5" s="46" t="s">
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="P5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
     </row>
     <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -17420,33 +17420,33 @@
       <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="47" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="47" t="s">
+      <c r="K6" s="47"/>
+      <c r="L6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="48"/>
+      <c r="M6" s="47"/>
       <c r="P6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="47" t="s">
+      <c r="Q6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="48"/>
-      <c r="S6" s="47" t="s">
+      <c r="R6" s="47"/>
+      <c r="S6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="48"/>
-      <c r="U6" s="47" t="s">
+      <c r="T6" s="47"/>
+      <c r="U6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="48"/>
+      <c r="V6" s="47"/>
     </row>
     <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -18834,8 +18834,13 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fj25z2xD9gCu32aEf8ZvgxNJZYapWNgJwA/2zAe5QefDLBvzjm6ScNz/W1pSDyfBNjH45j9VwLbtuMvmI1NdBA==" saltValue="PXjb9tlZTPXuznbUzV72bg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bpk9W94CpVFCbsVMNsIBwLUniDE9osdIyANKg0zWdV7Vre8Mt5OxmqReouSmpcZaF80nSsxqOxJp1qq36uXVhA==" saltValue="Sn/px19jnI5FDAbpaTSojA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:M3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="P5:V5"/>
@@ -18845,11 +18850,6 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
